--- a/data/trans_orig/P6906-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6906-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1673E0E-7EC8-45CF-975E-EC29E299D091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B01E7CEE-AB76-427E-B48D-F1CFF0FAE9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{62196A4B-40D2-4092-86E7-D182AC5D8362}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{045D0BCF-C92B-44EB-AF62-6F99E7FE7648}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="450">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -77,10 +77,10 @@
     <t>13,01%</t>
   </si>
   <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
   </si>
   <si>
     <t>9,95%</t>
@@ -89,16 +89,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>29,53%</t>
+    <t>33,34%</t>
   </si>
   <si>
     <t>12,09%</t>
   </si>
   <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,16 +107,16 @@
     <t>86,99%</t>
   </si>
   <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
   </si>
   <si>
     <t>90,05%</t>
   </si>
   <si>
-    <t>70,47%</t>
+    <t>66,66%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -125,10 +125,10 @@
     <t>87,91%</t>
   </si>
   <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>27,56%</t>
   </si>
   <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
   </si>
   <si>
     <t>23,67%</t>
   </si>
   <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
   </si>
   <si>
     <t>26,17%</t>
   </si>
   <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
   </si>
   <si>
     <t>72,44%</t>
   </si>
   <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
   </si>
   <si>
     <t>76,33%</t>
   </si>
   <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
   </si>
   <si>
     <t>73,83%</t>
   </si>
   <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,55 +197,55 @@
     <t>21,96%</t>
   </si>
   <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
   </si>
   <si>
     <t>20,93%</t>
   </si>
   <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
   </si>
   <si>
     <t>21,59%</t>
   </si>
   <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
   </si>
   <si>
     <t>78,04%</t>
   </si>
   <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
   </si>
   <si>
     <t>79,07%</t>
   </si>
   <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
   </si>
   <si>
     <t>78,41%</t>
   </si>
   <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -254,55 +254,55 @@
     <t>23,47%</t>
   </si>
   <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
   </si>
   <si>
     <t>27,61%</t>
   </si>
   <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
   </si>
   <si>
     <t>24,5%</t>
   </si>
   <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
   </si>
   <si>
     <t>76,53%</t>
   </si>
   <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
   </si>
   <si>
     <t>72,39%</t>
   </si>
   <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
   </si>
   <si>
     <t>75,5%</t>
   </si>
   <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -311,49 +311,49 @@
     <t>16,82%</t>
   </si>
   <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
   </si>
   <si>
     <t>14,57%</t>
   </si>
   <si>
-    <t>43,2%</t>
+    <t>43,77%</t>
   </si>
   <si>
     <t>16,29%</t>
   </si>
   <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
   </si>
   <si>
     <t>83,18%</t>
   </si>
   <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
   </si>
   <si>
     <t>85,43%</t>
   </si>
   <si>
-    <t>56,8%</t>
+    <t>56,23%</t>
   </si>
   <si>
     <t>83,71%</t>
   </si>
   <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -374,919 +374,937 @@
     <t>22,59%</t>
   </si>
   <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2012 (Tasa respuesta: 7,84%)</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2015 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
     <t>18,68%</t>
   </si>
   <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
   </si>
   <si>
     <t>81,32%</t>
   </si>
   <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2012 (Tasa respuesta: 7,84%)</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2015 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
   </si>
   <si>
     <t>76,03%</t>
   </si>
   <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
   </si>
   <si>
     <t>78,38%</t>
   </si>
   <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
+    <t>73,1%</t>
   </si>
   <si>
     <t>15,78%</t>
   </si>
   <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
   </si>
   <si>
     <t>35,91%</t>
   </si>
   <si>
-    <t>45,66%</t>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
   </si>
   <si>
     <t>24,95%</t>
   </si>
   <si>
-    <t>31,77%</t>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
   </si>
   <si>
     <t>84,22%</t>
   </si>
   <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
   </si>
   <si>
     <t>64,09%</t>
   </si>
   <si>
-    <t>54,34%</t>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
   </si>
   <si>
     <t>75,05%</t>
   </si>
   <si>
-    <t>68,23%</t>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -1295,13 +1313,13 @@
     <t>19,53%</t>
   </si>
   <si>
-    <t>72,72%</t>
+    <t>72,19%</t>
   </si>
   <si>
     <t>9,83%</t>
   </si>
   <si>
-    <t>40,88%</t>
+    <t>40,06%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -1310,61 +1328,67 @@
     <t>80,47%</t>
   </si>
   <si>
-    <t>27,28%</t>
+    <t>27,81%</t>
   </si>
   <si>
     <t>90,17%</t>
   </si>
   <si>
-    <t>59,12%</t>
+    <t>59,94%</t>
   </si>
   <si>
     <t>18,6%</t>
   </si>
   <si>
-    <t>14,06%</t>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
   </si>
   <si>
     <t>26,59%</t>
   </si>
   <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
   </si>
   <si>
     <t>22,64%</t>
   </si>
   <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
   </si>
   <si>
     <t>81,4%</t>
   </si>
   <si>
-    <t>85,94%</t>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
   </si>
   <si>
     <t>73,41%</t>
   </si>
   <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
   </si>
   <si>
     <t>77,36%</t>
   </si>
   <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
   </si>
 </sst>
 </file>
@@ -1776,7 +1800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675CA3A9-A522-45A7-81DE-99D4258F693A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0147BA-93F1-4BA1-8A3E-9F7D4B118179}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2989,7 +3013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D51E06-BA55-4F7B-970E-6BAF5971C437}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE6496E-B5DD-40B3-8B45-A11D10BEC783}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3426,10 +3450,10 @@
         <v>164</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>92</v>
+        <v>165</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -3438,13 +3462,13 @@
         <v>26307</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M10" s="7">
         <v>49</v>
@@ -3453,13 +3477,13 @@
         <v>48286</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3474,13 +3498,13 @@
         <v>76775</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="H11" s="7">
         <v>42</v>
@@ -3489,13 +3513,13 @@
         <v>46324</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M11" s="7">
         <v>116</v>
@@ -3504,13 +3528,13 @@
         <v>123100</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3578,13 +3602,13 @@
         <v>26634</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -3593,13 +3617,13 @@
         <v>7815</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M13" s="7">
         <v>31</v>
@@ -3608,13 +3632,13 @@
         <v>34449</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3629,13 +3653,13 @@
         <v>62387</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H14" s="7">
         <v>30</v>
@@ -3644,13 +3668,13 @@
         <v>33631</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M14" s="7">
         <v>88</v>
@@ -3659,13 +3683,13 @@
         <v>96019</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3733,13 +3757,13 @@
         <v>11117</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -3748,13 +3772,13 @@
         <v>7181</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -3763,13 +3787,13 @@
         <v>18298</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3784,13 +3808,13 @@
         <v>30717</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -3799,13 +3823,13 @@
         <v>16408</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M17" s="7">
         <v>45</v>
@@ -3814,13 +3838,13 @@
         <v>47125</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4025,13 +4049,13 @@
         <v>84720</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H22" s="7">
         <v>59</v>
@@ -4040,13 +4064,13 @@
         <v>63492</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M22" s="7">
         <v>140</v>
@@ -4055,13 +4079,13 @@
         <v>148212</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,13 +4100,13 @@
         <v>241505</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H23" s="7">
         <v>138</v>
@@ -4091,13 +4115,13 @@
         <v>151343</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M23" s="7">
         <v>370</v>
@@ -4106,13 +4130,13 @@
         <v>392848</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,7 +4214,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EFF8F3-E800-4799-9331-A0F6828A82F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E315D9A-DABB-4098-98FA-5804B6F2AE5B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4207,7 +4231,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4314,13 +4338,13 @@
         <v>3783</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4329,13 +4353,13 @@
         <v>2911</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -4344,13 +4368,13 @@
         <v>6695</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,13 +4389,13 @@
         <v>13368</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -4380,13 +4404,13 @@
         <v>8732</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M5" s="7">
         <v>22</v>
@@ -4395,13 +4419,13 @@
         <v>22099</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4469,13 +4493,13 @@
         <v>15619</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -4484,13 +4508,13 @@
         <v>14414</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M7" s="7">
         <v>28</v>
@@ -4499,13 +4523,13 @@
         <v>30033</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,13 +4544,13 @@
         <v>65953</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H8" s="7">
         <v>33</v>
@@ -4535,13 +4559,13 @@
         <v>31877</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M8" s="7">
         <v>96</v>
@@ -4550,13 +4574,13 @@
         <v>97830</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4624,13 +4648,13 @@
         <v>26634</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -4639,13 +4663,13 @@
         <v>20075</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M10" s="7">
         <v>43</v>
@@ -4654,13 +4678,13 @@
         <v>46709</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4675,13 +4699,13 @@
         <v>86489</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H11" s="7">
         <v>52</v>
@@ -4690,13 +4714,13 @@
         <v>51383</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M11" s="7">
         <v>134</v>
@@ -4705,13 +4729,13 @@
         <v>137872</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4779,13 +4803,13 @@
         <v>22898</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -4794,13 +4818,13 @@
         <v>19386</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M13" s="7">
         <v>37</v>
@@ -4809,13 +4833,13 @@
         <v>42284</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4830,13 +4854,13 @@
         <v>68530</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H14" s="7">
         <v>32</v>
@@ -4845,13 +4869,13 @@
         <v>36721</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M14" s="7">
         <v>95</v>
@@ -4860,13 +4884,13 @@
         <v>105251</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4934,13 +4958,13 @@
         <v>14701</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -4949,13 +4973,13 @@
         <v>13816</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M16" s="7">
         <v>25</v>
@@ -4964,13 +4988,13 @@
         <v>28517</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4985,13 +5009,13 @@
         <v>30147</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -5000,13 +5024,13 @@
         <v>16983</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M17" s="7">
         <v>41</v>
@@ -5015,13 +5039,13 @@
         <v>47129</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5095,7 +5119,7 @@
         <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5123,7 +5147,7 @@
         <v>106</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5141,7 +5165,7 @@
         <v>26</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -5169,7 +5193,7 @@
         <v>26</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>30</v>
@@ -5238,13 +5262,13 @@
         <v>83635</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H22" s="7">
         <v>67</v>
@@ -5253,13 +5277,13 @@
         <v>70601</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M22" s="7">
         <v>139</v>
@@ -5268,13 +5292,13 @@
         <v>154237</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>334</v>
+        <v>243</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5289,13 +5313,13 @@
         <v>266366</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H23" s="7">
         <v>140</v>
@@ -5304,13 +5328,13 @@
         <v>145697</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M23" s="7">
         <v>390</v>
@@ -5319,13 +5343,13 @@
         <v>412062</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>344</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5403,7 +5427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A250003A-7249-445F-8CAA-68DE120A8671}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B31E060-AF29-48A7-8601-3B30EAA5BCB3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5697,7 +5721,7 @@
         <v>14849</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>357</v>
@@ -5748,7 +5772,7 @@
         <v>41048</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>365</v>
@@ -5870,10 +5894,10 @@
         <v>376</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>275</v>
+        <v>377</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5888,13 +5912,13 @@
         <v>78162</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H11" s="7">
         <v>87</v>
@@ -5903,13 +5927,13 @@
         <v>59378</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M11" s="7">
         <v>166</v>
@@ -5918,13 +5942,13 @@
         <v>137540</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>285</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5992,13 +6016,13 @@
         <v>21402</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>111</v>
+        <v>388</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
@@ -6007,13 +6031,13 @@
         <v>34519</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="M13" s="7">
         <v>72</v>
@@ -6022,13 +6046,13 @@
         <v>55921</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>392</v>
+        <v>274</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6043,13 +6067,13 @@
         <v>93192</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>121</v>
+        <v>396</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="H14" s="7">
         <v>140</v>
@@ -6058,13 +6082,13 @@
         <v>109512</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="M14" s="7">
         <v>232</v>
@@ -6073,13 +6097,13 @@
         <v>202705</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>401</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6147,13 +6171,13 @@
         <v>11323</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="H16" s="7">
         <v>37</v>
@@ -6162,13 +6186,13 @@
         <v>21567</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="M16" s="7">
         <v>50</v>
@@ -6177,13 +6201,13 @@
         <v>32889</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>278</v>
+        <v>411</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6198,13 +6222,13 @@
         <v>60440</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="H17" s="7">
         <v>65</v>
@@ -6213,13 +6237,13 @@
         <v>38498</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="M17" s="7">
         <v>129</v>
@@ -6228,13 +6252,13 @@
         <v>98939</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>288</v>
+        <v>421</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6308,7 +6332,7 @@
         <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -6317,13 +6341,13 @@
         <v>611</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -6332,13 +6356,13 @@
         <v>611</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6356,7 +6380,7 @@
         <v>26</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -6368,10 +6392,10 @@
         <v>2520</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
@@ -6383,10 +6407,10 @@
         <v>5610</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>26</v>
@@ -6457,13 +6481,13 @@
         <v>65648</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>109</v>
+        <v>434</v>
       </c>
       <c r="H22" s="7">
         <v>133</v>
@@ -6472,13 +6496,13 @@
         <v>96051</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="M22" s="7">
         <v>194</v>
@@ -6487,13 +6511,13 @@
         <v>161699</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6508,13 +6532,13 @@
         <v>287370</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>107</v>
+        <v>442</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="H23" s="7">
         <v>341</v>
@@ -6523,13 +6547,13 @@
         <v>265160</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="M23" s="7">
         <v>618</v>
@@ -6538,13 +6562,13 @@
         <v>552529</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6906-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6906-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B01E7CEE-AB76-427E-B48D-F1CFF0FAE9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2278EB0-2C1D-4237-951D-568EBE769B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{045D0BCF-C92B-44EB-AF62-6F99E7FE7648}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A08DB22C-2F08-4BFF-A66B-D97A9A175647}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -77,10 +77,10 @@
     <t>13,01%</t>
   </si>
   <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
   </si>
   <si>
     <t>9,95%</t>
@@ -89,16 +89,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>33,34%</t>
+    <t>34,16%</t>
   </si>
   <si>
     <t>12,09%</t>
   </si>
   <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,16 +107,16 @@
     <t>86,99%</t>
   </si>
   <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
   </si>
   <si>
     <t>90,05%</t>
   </si>
   <si>
-    <t>66,66%</t>
+    <t>65,84%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -125,10 +125,10 @@
     <t>87,91%</t>
   </si>
   <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1119 +140,1125 @@
     <t>27,56%</t>
   </si>
   <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
   </si>
   <si>
     <t>23,67%</t>
   </si>
   <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
   </si>
   <si>
     <t>26,17%</t>
   </si>
   <si>
-    <t>20,18%</t>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2012 (Tasa respuesta: 7,84%)</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
   </si>
   <si>
     <t>32,52%</t>
   </si>
   <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
   </si>
   <si>
     <t>67,48%</t>
   </si>
   <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
   </si>
   <si>
     <t>16,1%</t>
   </si>
   <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
   </si>
   <si>
     <t>83,9%</t>
   </si>
   <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2012 (Tasa respuesta: 7,84%)</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
   </si>
   <si>
     <t>48,52%</t>
   </si>
   <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
   </si>
   <si>
     <t>51,48%</t>
   </si>
   <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2015 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
   </si>
   <si>
     <t>16,19%</t>
   </si>
   <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
   </si>
   <si>
     <t>83,81%</t>
   </si>
   <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
     <t>15,78%</t>
   </si>
   <si>
@@ -1352,9 +1358,6 @@
     <t>22,44%</t>
   </si>
   <si>
-    <t>31,26%</t>
-  </si>
-  <si>
     <t>22,64%</t>
   </si>
   <si>
@@ -1374,9 +1377,6 @@
   </si>
   <si>
     <t>73,41%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
   </si>
   <si>
     <t>77,56%</t>
@@ -1800,7 +1800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0147BA-93F1-4BA1-8A3E-9F7D4B118179}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDDDD579-D31C-4FDC-9120-6BCE70E78A2B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3013,7 +3013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE6496E-B5DD-40B3-8B45-A11D10BEC783}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3F6DF2-4D84-48CA-95D3-2E52314D3385}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4214,7 +4214,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E315D9A-DABB-4098-98FA-5804B6F2AE5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5544DDB4-5017-4FC9-99A1-0714628FBBBB}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4499,7 +4499,7 @@
         <v>256</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>257</v>
+        <v>203</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -4508,13 +4508,13 @@
         <v>14414</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M7" s="7">
         <v>28</v>
@@ -4523,13 +4523,13 @@
         <v>30033</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4544,13 +4544,13 @@
         <v>65953</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H8" s="7">
         <v>33</v>
@@ -4559,13 +4559,13 @@
         <v>31877</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M8" s="7">
         <v>96</v>
@@ -4574,13 +4574,13 @@
         <v>97830</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4648,13 +4648,13 @@
         <v>26634</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -4663,13 +4663,13 @@
         <v>20075</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M10" s="7">
         <v>43</v>
@@ -4678,13 +4678,13 @@
         <v>46709</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4699,13 +4699,13 @@
         <v>86489</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H11" s="7">
         <v>52</v>
@@ -4714,13 +4714,13 @@
         <v>51383</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M11" s="7">
         <v>134</v>
@@ -4729,13 +4729,13 @@
         <v>137872</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4803,13 +4803,13 @@
         <v>22898</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -4818,13 +4818,13 @@
         <v>19386</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M13" s="7">
         <v>37</v>
@@ -4833,13 +4833,13 @@
         <v>42284</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4854,13 +4854,13 @@
         <v>68530</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="H14" s="7">
         <v>32</v>
@@ -4869,13 +4869,13 @@
         <v>36721</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M14" s="7">
         <v>95</v>
@@ -4884,13 +4884,13 @@
         <v>105251</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4958,13 +4958,13 @@
         <v>14701</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -4973,13 +4973,13 @@
         <v>13816</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="M16" s="7">
         <v>25</v>
@@ -4988,13 +4988,13 @@
         <v>28517</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5009,13 +5009,13 @@
         <v>30147</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -5024,13 +5024,13 @@
         <v>16983</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="M17" s="7">
         <v>41</v>
@@ -5039,13 +5039,13 @@
         <v>47129</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,7 +5119,7 @@
         <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5147,7 +5147,7 @@
         <v>106</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5165,7 +5165,7 @@
         <v>26</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -5193,7 +5193,7 @@
         <v>26</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>30</v>
@@ -5262,13 +5262,13 @@
         <v>83635</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="H22" s="7">
         <v>67</v>
@@ -5277,13 +5277,13 @@
         <v>70601</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="M22" s="7">
         <v>139</v>
@@ -5292,13 +5292,13 @@
         <v>154237</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5313,13 +5313,13 @@
         <v>266366</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="H23" s="7">
         <v>140</v>
@@ -5328,13 +5328,13 @@
         <v>145697</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="M23" s="7">
         <v>390</v>
@@ -5343,13 +5343,13 @@
         <v>412062</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5427,7 +5427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B31E060-AF29-48A7-8601-3B30EAA5BCB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EFEE2FA-06B2-41D8-A91B-EEC503DA9B8B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6049,10 +6049,10 @@
         <v>394</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>274</v>
+        <v>395</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6067,13 +6067,13 @@
         <v>93192</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H14" s="7">
         <v>140</v>
@@ -6082,13 +6082,13 @@
         <v>109512</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M14" s="7">
         <v>232</v>
@@ -6097,13 +6097,13 @@
         <v>202705</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>284</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6171,13 +6171,13 @@
         <v>11323</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H16" s="7">
         <v>37</v>
@@ -6186,13 +6186,13 @@
         <v>21567</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="M16" s="7">
         <v>50</v>
@@ -6201,13 +6201,13 @@
         <v>32889</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6222,13 +6222,13 @@
         <v>60440</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="H17" s="7">
         <v>65</v>
@@ -6237,13 +6237,13 @@
         <v>38498</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M17" s="7">
         <v>129</v>
@@ -6252,13 +6252,13 @@
         <v>98939</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6332,7 +6332,7 @@
         <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -6341,13 +6341,13 @@
         <v>611</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -6356,13 +6356,13 @@
         <v>611</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6380,7 +6380,7 @@
         <v>26</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -6392,10 +6392,10 @@
         <v>2520</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
@@ -6407,10 +6407,10 @@
         <v>5610</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>26</v>
@@ -6481,13 +6481,13 @@
         <v>65648</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="H22" s="7">
         <v>133</v>
@@ -6496,13 +6496,13 @@
         <v>96051</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>437</v>
+        <v>166</v>
       </c>
       <c r="M22" s="7">
         <v>194</v>
@@ -6511,13 +6511,13 @@
         <v>161699</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6532,13 +6532,13 @@
         <v>287370</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H23" s="7">
         <v>341</v>
@@ -6547,10 +6547,10 @@
         <v>265160</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>445</v>
+        <v>174</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>446</v>

--- a/data/trans_orig/P6906-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6906-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2278EB0-2C1D-4237-951D-568EBE769B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD1DB303-98D9-436D-BB20-F246FC8800D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A08DB22C-2F08-4BFF-A66B-D97A9A175647}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{188CB2E1-B7AB-4775-9430-8F009C12FBDB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="442">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -71,16 +71,16 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>13,01%</t>
   </si>
   <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
   </si>
   <si>
     <t>9,95%</t>
@@ -89,16 +89,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>34,16%</t>
+    <t>29,53%</t>
   </si>
   <si>
     <t>12,09%</t>
   </si>
   <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,16 +107,16 @@
     <t>86,99%</t>
   </si>
   <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
   </si>
   <si>
     <t>90,05%</t>
   </si>
   <si>
-    <t>65,84%</t>
+    <t>70,47%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -125,10 +125,10 @@
     <t>87,91%</t>
   </si>
   <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>27,56%</t>
   </si>
   <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
   </si>
   <si>
     <t>23,67%</t>
   </si>
   <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
   </si>
   <si>
     <t>26,17%</t>
   </si>
   <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
   </si>
   <si>
     <t>72,44%</t>
   </si>
   <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
   </si>
   <si>
     <t>76,33%</t>
   </si>
   <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
   </si>
   <si>
     <t>73,83%</t>
   </si>
   <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,55 +197,55 @@
     <t>21,96%</t>
   </si>
   <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
   </si>
   <si>
     <t>20,93%</t>
   </si>
   <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
   </si>
   <si>
     <t>21,59%</t>
   </si>
   <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
   </si>
   <si>
     <t>78,04%</t>
   </si>
   <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
   </si>
   <si>
     <t>79,07%</t>
   </si>
   <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
   </si>
   <si>
     <t>78,41%</t>
   </si>
   <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -254,55 +254,55 @@
     <t>23,47%</t>
   </si>
   <si>
-    <t>15,17%</t>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
   </si>
   <si>
     <t>32,72%</t>
   </si>
   <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
     <t>76,53%</t>
   </si>
   <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
     <t>67,28%</t>
   </si>
   <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
+    <t>81,92%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -311,49 +311,49 @@
     <t>16,82%</t>
   </si>
   <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
   </si>
   <si>
     <t>14,57%</t>
   </si>
   <si>
-    <t>43,11%</t>
+    <t>43,2%</t>
   </si>
   <si>
     <t>16,29%</t>
   </si>
   <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
   </si>
   <si>
     <t>83,18%</t>
   </si>
   <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
   </si>
   <si>
     <t>85,43%</t>
   </si>
   <si>
-    <t>56,89%</t>
+    <t>56,8%</t>
   </si>
   <si>
     <t>83,71%</t>
   </si>
   <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -374,55 +374,55 @@
     <t>22,59%</t>
   </si>
   <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
   </si>
   <si>
     <t>21,64%</t>
   </si>
   <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
   </si>
   <si>
     <t>22,29%</t>
   </si>
   <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
   </si>
   <si>
     <t>77,41%</t>
   </si>
   <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
   </si>
   <si>
     <t>78,36%</t>
   </si>
   <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
   </si>
   <si>
     <t>77,71%</t>
   </si>
   <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -434,883 +434,859 @@
     <t>51,94%</t>
   </si>
   <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
   </si>
   <si>
     <t>19,04%</t>
   </si>
   <si>
-    <t>49,62%</t>
+    <t>49,89%</t>
   </si>
   <si>
     <t>35,71%</t>
   </si>
   <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
   </si>
   <si>
     <t>48,06%</t>
   </si>
   <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
   </si>
   <si>
     <t>80,96%</t>
   </si>
   <si>
-    <t>50,38%</t>
+    <t>50,11%</t>
   </si>
   <si>
     <t>64,29%</t>
   </si>
   <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
   </si>
   <si>
     <t>22,74%</t>
   </si>
   <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
     <t>14,44%</t>
   </si>
   <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
   </si>
   <si>
     <t>85,56%</t>
   </si>
   <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
   </si>
   <si>
     <t>48,65%</t>
   </si>
   <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
   </si>
   <si>
     <t>51,35%</t>
   </si>
   <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2016 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
   </si>
   <si>
     <t>35,1%</t>
   </si>
   <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
   </si>
   <si>
     <t>64,9%</t>
   </si>
   <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
+    <t>84,79%</t>
   </si>
   <si>
     <t>20,84%</t>
   </si>
   <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
   </si>
   <si>
     <t>26,74%</t>
   </si>
   <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
   </si>
   <si>
     <t>23,5%</t>
   </si>
   <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
+    <t>30,51%</t>
   </si>
   <si>
     <t>79,16%</t>
   </si>
   <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
   </si>
   <si>
     <t>73,26%</t>
   </si>
   <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
   </si>
   <si>
     <t>76,5%</t>
   </si>
   <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
   </si>
   <si>
     <t>23,97%</t>
   </si>
   <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
   </si>
   <si>
     <t>21,62%</t>
   </si>
   <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
   </si>
   <si>
     <t>76,03%</t>
   </si>
   <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
   </si>
   <si>
     <t>78,38%</t>
   </si>
   <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
   </si>
   <si>
     <t>15,78%</t>
   </si>
   <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
   </si>
   <si>
     <t>35,91%</t>
   </si>
   <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
+    <t>45,66%</t>
   </si>
   <si>
     <t>24,95%</t>
   </si>
   <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
+    <t>31,77%</t>
   </si>
   <si>
     <t>84,22%</t>
   </si>
   <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
   </si>
   <si>
     <t>64,09%</t>
   </si>
   <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
+    <t>54,34%</t>
   </si>
   <si>
     <t>75,05%</t>
   </si>
   <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
+    <t>68,23%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -1319,13 +1295,13 @@
     <t>19,53%</t>
   </si>
   <si>
-    <t>72,19%</t>
+    <t>72,72%</t>
   </si>
   <si>
     <t>9,83%</t>
   </si>
   <si>
-    <t>40,06%</t>
+    <t>40,88%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -1334,61 +1310,61 @@
     <t>80,47%</t>
   </si>
   <si>
-    <t>27,81%</t>
+    <t>27,28%</t>
   </si>
   <si>
     <t>90,17%</t>
   </si>
   <si>
-    <t>59,94%</t>
+    <t>59,12%</t>
   </si>
   <si>
     <t>18,6%</t>
   </si>
   <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
+    <t>14,06%</t>
   </si>
   <si>
     <t>26,59%</t>
   </si>
   <si>
-    <t>22,44%</t>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
   </si>
   <si>
     <t>22,64%</t>
   </si>
   <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
   </si>
   <si>
     <t>81,4%</t>
   </si>
   <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
+    <t>85,94%</t>
   </si>
   <si>
     <t>73,41%</t>
   </si>
   <si>
-    <t>77,56%</t>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
   </si>
   <si>
     <t>77,36%</t>
   </si>
   <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
   </si>
 </sst>
 </file>
@@ -1800,7 +1776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDDDD579-D31C-4FDC-9120-6BCE70E78A2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34122D4-2372-4FF4-904E-5CF0ADF0E7D8}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3013,7 +2989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3F6DF2-4D84-48CA-95D3-2E52314D3385}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB07B55-BA01-40C2-A05E-0B17D7F46DA3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3450,10 +3426,10 @@
         <v>164</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -3462,13 +3438,13 @@
         <v>26307</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M10" s="7">
         <v>49</v>
@@ -3477,13 +3453,13 @@
         <v>48286</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3498,13 +3474,13 @@
         <v>76775</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>174</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="H11" s="7">
         <v>42</v>
@@ -3513,13 +3489,13 @@
         <v>46324</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M11" s="7">
         <v>116</v>
@@ -3528,13 +3504,13 @@
         <v>123100</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,13 +3578,13 @@
         <v>26634</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -3617,13 +3593,13 @@
         <v>7815</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M13" s="7">
         <v>31</v>
@@ -3632,13 +3608,13 @@
         <v>34449</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3653,13 +3629,13 @@
         <v>62387</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H14" s="7">
         <v>30</v>
@@ -3668,13 +3644,13 @@
         <v>33631</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M14" s="7">
         <v>88</v>
@@ -3683,13 +3659,13 @@
         <v>96019</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,13 +3733,13 @@
         <v>11117</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -3772,13 +3748,13 @@
         <v>7181</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -3787,13 +3763,13 @@
         <v>18298</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3808,13 +3784,13 @@
         <v>30717</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -3823,13 +3799,13 @@
         <v>16408</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M17" s="7">
         <v>45</v>
@@ -3838,13 +3814,13 @@
         <v>47125</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4049,13 +4025,13 @@
         <v>84720</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H22" s="7">
         <v>59</v>
@@ -4064,13 +4040,13 @@
         <v>63492</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M22" s="7">
         <v>140</v>
@@ -4079,13 +4055,13 @@
         <v>148212</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,13 +4076,13 @@
         <v>241505</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H23" s="7">
         <v>138</v>
@@ -4115,13 +4091,13 @@
         <v>151343</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M23" s="7">
         <v>370</v>
@@ -4130,13 +4106,13 @@
         <v>392848</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,7 +4190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5544DDB4-5017-4FC9-99A1-0714628FBBBB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09CC2E30-1ABD-4CB3-B5CE-89895C75744E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4231,7 +4207,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4338,13 +4314,13 @@
         <v>3783</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4353,13 +4329,13 @@
         <v>2911</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -4368,13 +4344,13 @@
         <v>6695</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4389,13 +4365,13 @@
         <v>13368</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -4404,13 +4380,13 @@
         <v>8732</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M5" s="7">
         <v>22</v>
@@ -4419,13 +4395,13 @@
         <v>22099</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4493,13 +4469,13 @@
         <v>15619</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -4508,13 +4484,13 @@
         <v>14414</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M7" s="7">
         <v>28</v>
@@ -4523,13 +4499,13 @@
         <v>30033</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4544,10 +4520,10 @@
         <v>65953</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>264</v>
@@ -5427,7 +5403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EFEE2FA-06B2-41D8-A91B-EEC503DA9B8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC3D3847-F9D3-4F3D-A3DD-FBD0D258A49A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5721,7 +5697,7 @@
         <v>14849</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>357</v>
@@ -5772,7 +5748,7 @@
         <v>41048</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>365</v>
@@ -5894,10 +5870,10 @@
         <v>376</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5912,13 +5888,13 @@
         <v>78162</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="H11" s="7">
         <v>87</v>
@@ -5927,13 +5903,13 @@
         <v>59378</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="M11" s="7">
         <v>166</v>
@@ -5942,13 +5918,13 @@
         <v>137540</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>386</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>387</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6016,13 +5992,13 @@
         <v>21402</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>388</v>
+        <v>111</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
@@ -6031,13 +6007,13 @@
         <v>34519</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="M13" s="7">
         <v>72</v>
@@ -6046,13 +6022,13 @@
         <v>55921</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6067,13 +6043,13 @@
         <v>93192</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>397</v>
+        <v>121</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="H14" s="7">
         <v>140</v>
@@ -6082,13 +6058,13 @@
         <v>109512</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="M14" s="7">
         <v>232</v>
@@ -6097,13 +6073,13 @@
         <v>202705</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6171,13 +6147,13 @@
         <v>11323</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H16" s="7">
         <v>37</v>
@@ -6186,13 +6162,13 @@
         <v>21567</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="M16" s="7">
         <v>50</v>
@@ -6201,13 +6177,13 @@
         <v>32889</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>413</v>
+        <v>278</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6222,13 +6198,13 @@
         <v>60440</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="H17" s="7">
         <v>65</v>
@@ -6237,13 +6213,13 @@
         <v>38498</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>420</v>
+        <v>394</v>
       </c>
       <c r="M17" s="7">
         <v>129</v>
@@ -6252,13 +6228,13 @@
         <v>98939</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>423</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6332,7 +6308,7 @@
         <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -6341,13 +6317,13 @@
         <v>611</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -6356,13 +6332,13 @@
         <v>611</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6380,7 +6356,7 @@
         <v>26</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -6392,10 +6368,10 @@
         <v>2520</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
@@ -6407,10 +6383,10 @@
         <v>5610</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>26</v>
@@ -6481,13 +6457,13 @@
         <v>65648</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>436</v>
+        <v>109</v>
       </c>
       <c r="H22" s="7">
         <v>133</v>
@@ -6496,13 +6472,13 @@
         <v>96051</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>166</v>
+        <v>430</v>
       </c>
       <c r="M22" s="7">
         <v>194</v>
@@ -6511,13 +6487,13 @@
         <v>161699</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6532,13 +6508,13 @@
         <v>287370</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>443</v>
+        <v>107</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="H23" s="7">
         <v>341</v>
@@ -6547,13 +6523,13 @@
         <v>265160</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>174</v>
+        <v>437</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="M23" s="7">
         <v>618</v>
@@ -6562,13 +6538,13 @@
         <v>552529</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6906-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6906-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD1DB303-98D9-436D-BB20-F246FC8800D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DAF4C2B-7797-483F-9969-BDF45B7F604C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{188CB2E1-B7AB-4775-9430-8F009C12FBDB}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{AFB013DD-D2D0-4E8D-8540-6C80035FAB00}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="454">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>27,56%</t>
@@ -191,7 +191,7 @@
     <t>79,64%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>21,96%</t>
@@ -248,7 +248,7 @@
     <t>83,49%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>23,47%</t>
@@ -305,7 +305,7 @@
     <t>81,92%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>16,82%</t>
@@ -356,7 +356,13 @@
     <t>91,89%</t>
   </si>
   <si>
-    <t>65 y más</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
   </si>
   <si>
     <t>0%</t>
@@ -365,9 +371,6 @@
     <t>77,15%</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
     <t>22,85%</t>
   </si>
   <si>
@@ -1082,289 +1085,322 @@
     <t>36,25%</t>
   </si>
   <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
   </si>
   <si>
     <t>63,75%</t>
   </si>
   <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
   </si>
   <si>
     <t>30,51%</t>
   </si>
   <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
   </si>
   <si>
     <t>69,49%</t>
   </si>
   <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
   </si>
   <si>
     <t>30,57%</t>
   </si>
   <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
   </si>
   <si>
     <t>69,43%</t>
   </si>
   <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
   </si>
 </sst>
 </file>
@@ -1776,8 +1812,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34122D4-2372-4FF4-904E-5CF0ADF0E7D8}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FA43FA-98F1-48F1-A822-BA813AC9F8CC}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2671,45 +2707,41 @@
       <c r="C19" s="7">
         <v>0</v>
       </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
+      <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
       </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
+      <c r="N19" s="7"/>
       <c r="O19" s="7" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>106</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2718,47 +2750,43 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
-      </c>
-      <c r="D20" s="7">
-        <v>821</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M20" s="7">
-        <v>1</v>
-      </c>
-      <c r="N20" s="7">
-        <v>821</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N20" s="7"/>
       <c r="O20" s="7" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2767,100 +2795,94 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1</v>
-      </c>
-      <c r="D21" s="7">
-        <v>821</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M21" s="7">
-        <v>1</v>
-      </c>
-      <c r="N21" s="7">
-        <v>821</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N21" s="7"/>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>106686</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H22" s="7">
-        <v>46</v>
-      </c>
-      <c r="I22" s="7">
-        <v>47644</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="M22" s="7">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>154330</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2869,49 +2891,47 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>352</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>365619</v>
+        <v>821</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="H23" s="7">
-        <v>169</v>
-      </c>
-      <c r="I23" s="7">
-        <v>172477</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="M23" s="7">
-        <v>521</v>
+        <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>538097</v>
+        <v>821</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2920,63 +2940,217 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7">
+        <v>821</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1</v>
+      </c>
+      <c r="N24" s="7">
+        <v>821</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>98</v>
+      </c>
+      <c r="D25" s="7">
+        <v>106686</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H25" s="7">
+        <v>46</v>
+      </c>
+      <c r="I25" s="7">
+        <v>47644</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="M25" s="7">
+        <v>144</v>
+      </c>
+      <c r="N25" s="7">
+        <v>154330</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>352</v>
+      </c>
+      <c r="D26" s="7">
+        <v>365619</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H26" s="7">
+        <v>169</v>
+      </c>
+      <c r="I26" s="7">
+        <v>172477</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M26" s="7">
+        <v>521</v>
+      </c>
+      <c r="N26" s="7">
+        <v>538097</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>450</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>472305</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>215</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>220121</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>665</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>692427</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>128</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2989,8 +3163,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB07B55-BA01-40C2-A05E-0B17D7F46DA3}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1F8099-24C0-4063-A985-B1E281BC7E81}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3006,7 +3180,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3113,13 +3287,13 @@
         <v>5364</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3128,13 +3302,13 @@
         <v>1915</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -3143,13 +3317,13 @@
         <v>7279</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3164,13 +3338,13 @@
         <v>4963</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -3179,10 +3353,10 @@
         <v>8141</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -3194,13 +3368,13 @@
         <v>13104</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3268,13 +3442,13 @@
         <v>19625</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -3283,13 +3457,13 @@
         <v>20274</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M7" s="7">
         <v>36</v>
@@ -3298,13 +3472,13 @@
         <v>39899</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3319,13 +3493,13 @@
         <v>66663</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H8" s="7">
         <v>43</v>
@@ -3334,13 +3508,13 @@
         <v>46838</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M8" s="7">
         <v>108</v>
@@ -3349,13 +3523,13 @@
         <v>113501</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3423,13 +3597,13 @@
         <v>21980</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>92</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -3438,13 +3612,13 @@
         <v>26307</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M10" s="7">
         <v>49</v>
@@ -3453,13 +3627,13 @@
         <v>48286</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3474,10 +3648,10 @@
         <v>76775</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>100</v>
@@ -3489,13 +3663,13 @@
         <v>46324</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>116</v>
@@ -3504,13 +3678,13 @@
         <v>123100</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3578,13 +3752,13 @@
         <v>26634</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -3593,13 +3767,13 @@
         <v>7815</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>31</v>
@@ -3608,13 +3782,13 @@
         <v>34449</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3629,13 +3803,13 @@
         <v>62387</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H14" s="7">
         <v>30</v>
@@ -3644,13 +3818,13 @@
         <v>33631</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>88</v>
@@ -3659,13 +3833,13 @@
         <v>96019</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3733,13 +3907,13 @@
         <v>11117</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -3748,13 +3922,13 @@
         <v>7181</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -3763,13 +3937,13 @@
         <v>18298</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3784,13 +3958,13 @@
         <v>30717</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -3799,13 +3973,13 @@
         <v>16408</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M17" s="7">
         <v>45</v>
@@ -3814,13 +3988,13 @@
         <v>47125</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3886,39 +4060,39 @@
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
       </c>
       <c r="N19" s="7"/>
       <c r="O19" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3931,39 +4105,39 @@
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
       </c>
       <c r="N20" s="7"/>
       <c r="O20" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3976,92 +4150,86 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
       </c>
       <c r="N21" s="7"/>
       <c r="O21" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>81</v>
-      </c>
-      <c r="D22" s="7">
-        <v>84720</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>216</v>
+        <v>106</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>217</v>
+        <v>106</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>218</v>
+        <v>106</v>
       </c>
       <c r="H22" s="7">
-        <v>59</v>
-      </c>
-      <c r="I22" s="7">
-        <v>63492</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>219</v>
+        <v>106</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>221</v>
+        <v>106</v>
       </c>
       <c r="M22" s="7">
-        <v>140</v>
-      </c>
-      <c r="N22" s="7">
-        <v>148212</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N22" s="7"/>
       <c r="O22" s="7" t="s">
-        <v>222</v>
+        <v>106</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>223</v>
+        <v>106</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>224</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,49 +4238,43 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>232</v>
-      </c>
-      <c r="D23" s="7">
-        <v>241505</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>225</v>
+        <v>106</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>226</v>
+        <v>106</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>227</v>
+        <v>106</v>
       </c>
       <c r="H23" s="7">
-        <v>138</v>
-      </c>
-      <c r="I23" s="7">
-        <v>151343</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>228</v>
+        <v>106</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>229</v>
+        <v>106</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>230</v>
+        <v>106</v>
       </c>
       <c r="M23" s="7">
-        <v>370</v>
-      </c>
-      <c r="N23" s="7">
-        <v>392848</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N23" s="7"/>
       <c r="O23" s="7" t="s">
-        <v>231</v>
+        <v>106</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>232</v>
+        <v>106</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>233</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,63 +4283,213 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>81</v>
+      </c>
+      <c r="D25" s="7">
+        <v>84720</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H25" s="7">
+        <v>59</v>
+      </c>
+      <c r="I25" s="7">
+        <v>63492</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="M25" s="7">
+        <v>140</v>
+      </c>
+      <c r="N25" s="7">
+        <v>148212</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>232</v>
+      </c>
+      <c r="D26" s="7">
+        <v>241505</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H26" s="7">
+        <v>138</v>
+      </c>
+      <c r="I26" s="7">
+        <v>151343</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="M26" s="7">
+        <v>370</v>
+      </c>
+      <c r="N26" s="7">
+        <v>392848</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>313</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>326225</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>197</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>214835</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>510</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>541060</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>128</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4190,8 +4502,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09CC2E30-1ABD-4CB3-B5CE-89895C75744E}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4812E4-458C-4BB1-B957-1347C1A77657}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4207,7 +4519,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4314,13 +4626,13 @@
         <v>3783</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4329,13 +4641,13 @@
         <v>2911</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -4344,13 +4656,13 @@
         <v>6695</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,13 +4677,13 @@
         <v>13368</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -4380,13 +4692,13 @@
         <v>8732</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M5" s="7">
         <v>22</v>
@@ -4395,13 +4707,13 @@
         <v>22099</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4469,13 +4781,13 @@
         <v>15619</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -4484,13 +4796,13 @@
         <v>14414</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M7" s="7">
         <v>28</v>
@@ -4499,13 +4811,13 @@
         <v>30033</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,13 +4832,13 @@
         <v>65953</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H8" s="7">
         <v>33</v>
@@ -4535,13 +4847,13 @@
         <v>31877</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M8" s="7">
         <v>96</v>
@@ -4550,13 +4862,13 @@
         <v>97830</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4624,13 +4936,13 @@
         <v>26634</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -4639,13 +4951,13 @@
         <v>20075</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M10" s="7">
         <v>43</v>
@@ -4654,13 +4966,13 @@
         <v>46709</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4675,13 +4987,13 @@
         <v>86489</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H11" s="7">
         <v>52</v>
@@ -4690,13 +5002,13 @@
         <v>51383</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M11" s="7">
         <v>134</v>
@@ -4705,13 +5017,13 @@
         <v>137872</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4779,13 +5091,13 @@
         <v>22898</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -4794,13 +5106,13 @@
         <v>19386</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M13" s="7">
         <v>37</v>
@@ -4809,13 +5121,13 @@
         <v>42284</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4830,13 +5142,13 @@
         <v>68530</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H14" s="7">
         <v>32</v>
@@ -4845,13 +5157,13 @@
         <v>36721</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M14" s="7">
         <v>95</v>
@@ -4860,13 +5172,13 @@
         <v>105251</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4934,13 +5246,13 @@
         <v>14701</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -4949,13 +5261,13 @@
         <v>13816</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M16" s="7">
         <v>25</v>
@@ -4964,13 +5276,13 @@
         <v>28517</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4985,13 +5297,13 @@
         <v>30147</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -5000,13 +5312,13 @@
         <v>16983</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M17" s="7">
         <v>41</v>
@@ -5015,13 +5327,13 @@
         <v>47129</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5092,23 +5404,23 @@
         <v>15</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5120,10 +5432,10 @@
         <v>15</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5141,7 +5453,7 @@
         <v>26</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -5151,13 +5463,13 @@
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -5169,7 +5481,7 @@
         <v>26</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>30</v>
@@ -5200,13 +5512,13 @@
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -5226,55 +5538,49 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>72</v>
-      </c>
-      <c r="D22" s="7">
-        <v>83635</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>327</v>
+        <v>106</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>328</v>
+        <v>106</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>329</v>
+        <v>106</v>
       </c>
       <c r="H22" s="7">
-        <v>67</v>
-      </c>
-      <c r="I22" s="7">
-        <v>70601</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>330</v>
+        <v>106</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>331</v>
+        <v>106</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>332</v>
+        <v>106</v>
       </c>
       <c r="M22" s="7">
-        <v>139</v>
-      </c>
-      <c r="N22" s="7">
-        <v>154237</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N22" s="7"/>
       <c r="O22" s="7" t="s">
-        <v>333</v>
+        <v>106</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>334</v>
+        <v>106</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>335</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5283,49 +5589,43 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>250</v>
-      </c>
-      <c r="D23" s="7">
-        <v>266366</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>336</v>
+        <v>106</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>337</v>
+        <v>106</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>338</v>
+        <v>106</v>
       </c>
       <c r="H23" s="7">
-        <v>140</v>
-      </c>
-      <c r="I23" s="7">
-        <v>145697</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>339</v>
+        <v>106</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>340</v>
+        <v>106</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>341</v>
+        <v>106</v>
       </c>
       <c r="M23" s="7">
-        <v>390</v>
-      </c>
-      <c r="N23" s="7">
-        <v>412062</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N23" s="7"/>
       <c r="O23" s="7" t="s">
-        <v>342</v>
+        <v>106</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>343</v>
+        <v>106</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>344</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5334,63 +5634,213 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>72</v>
+      </c>
+      <c r="D25" s="7">
+        <v>83635</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H25" s="7">
+        <v>67</v>
+      </c>
+      <c r="I25" s="7">
+        <v>70601</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="M25" s="7">
+        <v>139</v>
+      </c>
+      <c r="N25" s="7">
+        <v>154237</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>250</v>
+      </c>
+      <c r="D26" s="7">
+        <v>266366</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H26" s="7">
+        <v>140</v>
+      </c>
+      <c r="I26" s="7">
+        <v>145697</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="M26" s="7">
+        <v>390</v>
+      </c>
+      <c r="N26" s="7">
+        <v>412062</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>322</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>350001</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>207</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>216298</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>529</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>566299</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>128</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5403,8 +5853,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC3D3847-F9D3-4F3D-A3DD-FBD0D258A49A}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD9111B-BDE9-4480-9C06-C033D58D18BB}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5420,7 +5870,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5530,40 +5980,40 @@
         <v>15</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>2833</v>
+        <v>2690</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>2833</v>
+        <v>2690</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>17</v>
+        <v>350</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5575,13 +6025,13 @@
         <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>6398</v>
+        <v>5989</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -5590,13 +6040,13 @@
         <v>8</v>
       </c>
       <c r="I5" s="7">
-        <v>14204</v>
+        <v>12654</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -5605,13 +6055,13 @@
         <v>12</v>
       </c>
       <c r="N5" s="7">
-        <v>20602</v>
+        <v>18643</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>27</v>
+        <v>355</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>26</v>
@@ -5626,7 +6076,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>6398</v>
+        <v>5989</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5641,7 +6091,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="7">
-        <v>17037</v>
+        <v>15344</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5656,7 +6106,7 @@
         <v>14</v>
       </c>
       <c r="N6" s="7">
-        <v>23435</v>
+        <v>21333</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5679,46 +6129,46 @@
         <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>12346</v>
+        <v>13235</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>356</v>
+        <v>212</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
       </c>
       <c r="I7" s="7">
-        <v>14849</v>
+        <v>13701</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>198</v>
+        <v>359</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
       </c>
       <c r="N7" s="7">
-        <v>27195</v>
+        <v>26936</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5730,46 +6180,46 @@
         <v>33</v>
       </c>
       <c r="D8" s="7">
-        <v>46086</v>
+        <v>45839</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>363</v>
+        <v>204</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H8" s="7">
         <v>36</v>
       </c>
       <c r="I8" s="7">
-        <v>41048</v>
+        <v>36248</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>207</v>
+        <v>367</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="M8" s="7">
         <v>69</v>
       </c>
       <c r="N8" s="7">
-        <v>87134</v>
+        <v>82086</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5781,7 +6231,7 @@
         <v>42</v>
       </c>
       <c r="D9" s="7">
-        <v>58432</v>
+        <v>59074</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5796,7 +6246,7 @@
         <v>48</v>
       </c>
       <c r="I9" s="7">
-        <v>55897</v>
+        <v>49949</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5811,7 +6261,7 @@
         <v>90</v>
       </c>
       <c r="N9" s="7">
-        <v>114329</v>
+        <v>109022</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5834,46 +6284,46 @@
         <v>18</v>
       </c>
       <c r="D10" s="7">
-        <v>20578</v>
+        <v>19819</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
       </c>
       <c r="I10" s="7">
-        <v>21672</v>
+        <v>20197</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="M10" s="7">
         <v>48</v>
       </c>
       <c r="N10" s="7">
-        <v>42250</v>
+        <v>40016</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>275</v>
+        <v>380</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5885,46 +6335,46 @@
         <v>79</v>
       </c>
       <c r="D11" s="7">
-        <v>78162</v>
+        <v>75712</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="H11" s="7">
         <v>87</v>
       </c>
       <c r="I11" s="7">
-        <v>59378</v>
+        <v>55355</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="M11" s="7">
         <v>166</v>
       </c>
       <c r="N11" s="7">
-        <v>137540</v>
+        <v>131068</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>285</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5936,7 +6386,7 @@
         <v>97</v>
       </c>
       <c r="D12" s="7">
-        <v>98740</v>
+        <v>95531</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5951,7 +6401,7 @@
         <v>117</v>
       </c>
       <c r="I12" s="7">
-        <v>81050</v>
+        <v>75552</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5966,7 +6416,7 @@
         <v>214</v>
       </c>
       <c r="N12" s="7">
-        <v>179790</v>
+        <v>171084</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5989,46 +6439,46 @@
         <v>21</v>
       </c>
       <c r="D13" s="7">
-        <v>21402</v>
+        <v>20611</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>111</v>
+        <v>391</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
       </c>
       <c r="I13" s="7">
-        <v>34519</v>
+        <v>31921</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="M13" s="7">
         <v>72</v>
       </c>
       <c r="N13" s="7">
-        <v>55921</v>
+        <v>52532</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6040,46 +6490,46 @@
         <v>92</v>
       </c>
       <c r="D14" s="7">
-        <v>93192</v>
+        <v>87942</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>121</v>
+        <v>400</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="H14" s="7">
         <v>140</v>
       </c>
       <c r="I14" s="7">
-        <v>109512</v>
+        <v>123028</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="M14" s="7">
         <v>232</v>
       </c>
       <c r="N14" s="7">
-        <v>202705</v>
+        <v>210970</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6091,7 +6541,7 @@
         <v>113</v>
       </c>
       <c r="D15" s="7">
-        <v>114594</v>
+        <v>108553</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6106,7 +6556,7 @@
         <v>191</v>
       </c>
       <c r="I15" s="7">
-        <v>144031</v>
+        <v>154949</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6121,7 +6571,7 @@
         <v>304</v>
       </c>
       <c r="N15" s="7">
-        <v>258626</v>
+        <v>263502</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6144,46 +6594,46 @@
         <v>13</v>
       </c>
       <c r="D16" s="7">
-        <v>11323</v>
+        <v>10778</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="H16" s="7">
         <v>37</v>
       </c>
       <c r="I16" s="7">
-        <v>21567</v>
+        <v>20131</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>387</v>
+        <v>413</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="M16" s="7">
         <v>50</v>
       </c>
       <c r="N16" s="7">
-        <v>32889</v>
+        <v>30909</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>278</v>
+        <v>416</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6195,46 +6645,46 @@
         <v>64</v>
       </c>
       <c r="D17" s="7">
-        <v>60440</v>
+        <v>56658</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="H17" s="7">
         <v>65</v>
       </c>
       <c r="I17" s="7">
-        <v>38498</v>
+        <v>35376</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>394</v>
+        <v>423</v>
       </c>
       <c r="M17" s="7">
         <v>129</v>
       </c>
       <c r="N17" s="7">
-        <v>98939</v>
+        <v>92034</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>288</v>
+        <v>426</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6246,7 +6696,7 @@
         <v>77</v>
       </c>
       <c r="D18" s="7">
-        <v>71763</v>
+        <v>67436</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6261,7 +6711,7 @@
         <v>102</v>
       </c>
       <c r="I18" s="7">
-        <v>60065</v>
+        <v>55507</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6276,7 +6726,7 @@
         <v>179</v>
       </c>
       <c r="N18" s="7">
-        <v>131828</v>
+        <v>122943</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6305,40 +6755,40 @@
         <v>15</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>611</v>
+        <v>566</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>418</v>
+        <v>367</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>611</v>
+        <v>566</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6350,13 +6800,13 @@
         <v>5</v>
       </c>
       <c r="D20" s="7">
-        <v>3090</v>
+        <v>2923</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -6365,13 +6815,13 @@
         <v>5</v>
       </c>
       <c r="I20" s="7">
-        <v>2520</v>
+        <v>2348</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
@@ -6380,13 +6830,13 @@
         <v>10</v>
       </c>
       <c r="N20" s="7">
-        <v>5610</v>
+        <v>5270</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>26</v>
@@ -6401,7 +6851,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="7">
-        <v>3090</v>
+        <v>2923</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6416,7 +6866,7 @@
         <v>6</v>
       </c>
       <c r="I21" s="7">
-        <v>3131</v>
+        <v>2914</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6431,7 +6881,7 @@
         <v>11</v>
       </c>
       <c r="N21" s="7">
-        <v>6221</v>
+        <v>5836</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6445,55 +6895,49 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>61</v>
-      </c>
-      <c r="D22" s="7">
-        <v>65648</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>426</v>
+        <v>106</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>427</v>
+        <v>106</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H22" s="7">
-        <v>133</v>
-      </c>
-      <c r="I22" s="7">
-        <v>96051</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>428</v>
+        <v>106</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>429</v>
+        <v>106</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>430</v>
+        <v>106</v>
       </c>
       <c r="M22" s="7">
-        <v>194</v>
-      </c>
-      <c r="N22" s="7">
-        <v>161699</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N22" s="7"/>
       <c r="O22" s="7" t="s">
-        <v>431</v>
+        <v>106</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>432</v>
+        <v>106</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>433</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6502,49 +6946,43 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>277</v>
-      </c>
-      <c r="D23" s="7">
-        <v>287370</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>434</v>
+        <v>106</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>435</v>
+        <v>106</v>
       </c>
       <c r="H23" s="7">
-        <v>341</v>
-      </c>
-      <c r="I23" s="7">
-        <v>265160</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>436</v>
+        <v>106</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>437</v>
+        <v>106</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>438</v>
+        <v>106</v>
       </c>
       <c r="M23" s="7">
-        <v>618</v>
-      </c>
-      <c r="N23" s="7">
-        <v>552529</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N23" s="7"/>
       <c r="O23" s="7" t="s">
-        <v>439</v>
+        <v>106</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>440</v>
+        <v>106</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>441</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6553,63 +6991,213 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>61</v>
+      </c>
+      <c r="D25" s="7">
+        <v>64442</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="H25" s="7">
+        <v>133</v>
+      </c>
+      <c r="I25" s="7">
+        <v>89206</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="M25" s="7">
+        <v>194</v>
+      </c>
+      <c r="N25" s="7">
+        <v>153648</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>277</v>
+      </c>
+      <c r="D26" s="7">
+        <v>275063</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="H26" s="7">
+        <v>341</v>
+      </c>
+      <c r="I26" s="7">
+        <v>265009</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="M26" s="7">
+        <v>618</v>
+      </c>
+      <c r="N26" s="7">
+        <v>540072</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>338</v>
       </c>
-      <c r="D24" s="7">
-        <v>353018</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>339505</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>474</v>
       </c>
-      <c r="I24" s="7">
-        <v>361211</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>354215</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>812</v>
       </c>
-      <c r="N24" s="7">
-        <v>714228</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>128</v>
+      <c r="N27" s="7">
+        <v>693720</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
